--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2607781.011090302</v>
+        <v>2605239.379496622</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.45987517072696</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.2964914343833</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>134.1800944923687</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60.84311367291399</v>
+        <v>52.62893363309664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.1874442843758</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>181.314561700146</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>349.2299344537552</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908714</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537563</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537563</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27.07177597180981</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277717</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611971</v>
+        <v>8.321493021612085</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>33.83362369096373</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>147.4802351496305</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>59.97665956884499</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.5544178475184</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>47.09132058709841</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>139.6887432323031</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460223</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272892</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.0023520977995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472036</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400639</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>152.0854776630161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>33.01627976944107</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.3628934706926</v>
+        <v>400.787117755479</v>
       </c>
       <c r="C2" t="n">
-        <v>170.3628934706926</v>
+        <v>400.787117755479</v>
       </c>
       <c r="D2" t="n">
-        <v>170.3628934706926</v>
+        <v>400.787117755479</v>
       </c>
       <c r="E2" t="n">
-        <v>170.3628934706926</v>
+        <v>400.787117755479</v>
       </c>
       <c r="F2" t="n">
-        <v>163.4173927214891</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201469</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201469</v>
+        <v>590.206902771964</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201469</v>
+        <v>400.787117755479</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201469</v>
+        <v>400.787117755479</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036621</v>
+        <v>400.787117755479</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871773</v>
+        <v>400.787117755479</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871773</v>
+        <v>400.787117755479</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.3628934706926</v>
+        <v>400.787117755479</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397.9640582856523</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>533.4995072678429</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678429</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="V3" t="n">
-        <v>397.9640582856523</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="W3" t="n">
-        <v>397.9640582856523</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X3" t="n">
-        <v>397.9640582856523</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="Y3" t="n">
-        <v>397.9640582856523</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.2627786323101</v>
+        <v>237.0987689245425</v>
       </c>
       <c r="C4" t="n">
-        <v>371.2627786323101</v>
+        <v>68.16258599663556</v>
       </c>
       <c r="D4" t="n">
-        <v>371.2627786323101</v>
+        <v>68.16258599663556</v>
       </c>
       <c r="E4" t="n">
-        <v>223.349685049917</v>
+        <v>68.16258599663556</v>
       </c>
       <c r="F4" t="n">
-        <v>76.4597375520066</v>
+        <v>68.16258599663556</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>43.17590452428138</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>216.0634826394165</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639638</v>
+        <v>401.7138139340734</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242516</v>
+        <v>587.3641452287303</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608018</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652796</v>
+        <v>615.9383389575124</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652796</v>
+        <v>615.9383389575124</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652796</v>
+        <v>426.5185539410274</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652796</v>
+        <v>237.0987689245425</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487948</v>
+        <v>237.0987689245425</v>
       </c>
       <c r="W4" t="n">
-        <v>371.2627786323101</v>
+        <v>237.0987689245425</v>
       </c>
       <c r="X4" t="n">
-        <v>371.2627786323101</v>
+        <v>237.0987689245425</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.2627786323101</v>
+        <v>237.0987689245425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.54878059720195</v>
+        <v>995.7596473071513</v>
       </c>
       <c r="C5" t="n">
-        <v>47.54878059720195</v>
+        <v>995.7596473071513</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720195</v>
+        <v>812.6136253878119</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720195</v>
+        <v>812.6136253878119</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799848</v>
+        <v>459.8561158385643</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563005</v>
+        <v>447.1912307468663</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563005</v>
+        <v>132.885318181423</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874677</v>
+        <v>80.99020340874574</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620546</v>
+        <v>211.239630562053</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458683</v>
+        <v>409.7273242458661</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973851</v>
+        <v>662.2525653973823</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365779</v>
+        <v>923.4777373365744</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477536</v>
+        <v>1156.809998477532</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169738</v>
+        <v>1321.452684169734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815025</v>
+        <v>1249.420751151483</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815025</v>
+        <v>1249.420751151483</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815025</v>
+        <v>995.7596473071513</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815025</v>
+        <v>995.7596473071513</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.162228265776</v>
+        <v>995.7596473071513</v>
       </c>
       <c r="X5" t="n">
-        <v>691.4047187165274</v>
+        <v>995.7596473071513</v>
       </c>
       <c r="Y5" t="n">
-        <v>338.6472091672786</v>
+        <v>995.7596473071513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657.0978466772493</v>
+        <v>286.1153240069854</v>
       </c>
       <c r="C6" t="n">
-        <v>482.6448173961223</v>
+        <v>286.1153240069854</v>
       </c>
       <c r="D6" t="n">
-        <v>333.7104077348711</v>
+        <v>286.1153240069854</v>
       </c>
       <c r="E6" t="n">
-        <v>174.4729527294155</v>
+        <v>126.8778690015299</v>
       </c>
       <c r="F6" t="n">
-        <v>27.9383947563005</v>
+        <v>126.8778690015299</v>
       </c>
       <c r="G6" t="n">
-        <v>27.9383947563005</v>
+        <v>126.8778690015299</v>
       </c>
       <c r="H6" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143089</v>
+        <v>40.71784159143066</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379374</v>
+        <v>140.7147764379369</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824499</v>
+        <v>321.495536882449</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158618</v>
+        <v>551.8150256158606</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947665</v>
+        <v>802.6390307947648</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.87419788785</v>
+        <v>1009.874197887848</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411835</v>
+        <v>1348.579058983949</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308346</v>
+        <v>1388.514189308342</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308346</v>
+        <v>1388.514189308342</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308346</v>
+        <v>1192.349783031354</v>
       </c>
       <c r="U6" t="n">
-        <v>1354.338811842726</v>
+        <v>964.2244594635682</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.186703610984</v>
+        <v>729.0723512318255</v>
       </c>
       <c r="W6" t="n">
-        <v>864.9493468827822</v>
+        <v>729.0723512318255</v>
       </c>
       <c r="X6" t="n">
-        <v>657.0978466772493</v>
+        <v>521.2208510262926</v>
       </c>
       <c r="Y6" t="n">
-        <v>657.0978466772493</v>
+        <v>313.4605522613387</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>491.6776187645108</v>
+        <v>175.8514883386935</v>
       </c>
       <c r="C7" t="n">
-        <v>322.741435836604</v>
+        <v>175.8514883386935</v>
       </c>
       <c r="D7" t="n">
-        <v>322.741435836604</v>
+        <v>175.8514883386935</v>
       </c>
       <c r="E7" t="n">
-        <v>174.8283422542109</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="F7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="G7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="H7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="I7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>148.523310587469</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208643</v>
+        <v>358.3569215208639</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014279</v>
+        <v>589.9861665014273</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750254</v>
+        <v>821.5424021750246</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767885</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.191378612031</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049273</v>
+        <v>1059.927283950956</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049273</v>
+        <v>1059.927283950956</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049273</v>
+        <v>835.0311720137605</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049273</v>
+        <v>835.0311720137605</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049273</v>
+        <v>835.0311720137605</v>
       </c>
       <c r="W7" t="n">
-        <v>1122.108213636298</v>
+        <v>545.6140019768</v>
       </c>
       <c r="X7" t="n">
-        <v>894.1186627382807</v>
+        <v>545.6140019768</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.3260835947506</v>
+        <v>324.8214228332698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496369</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092252</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7592778092252</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7592778092252</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>98.81377706002171</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273905</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273905</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>376.4492432300683</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>209.2531439449482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7555,13 +7555,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,49 +7634,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,25 +7783,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471107</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>154.1946371899309</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898932</v>
+        <v>41.92993463898952</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.6499349213304</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213322</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3273467878356</v>
+        <v>35.91627445172514</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054687</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1352912260284995</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>77.2460287070935</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.8130107209615</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.15184655856396</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>73.62417772602106</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.2784330767828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>800100.1156577677</v>
+        <v>800100.1156577676</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427123</v>
+        <v>178997.5061427109</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731202</v>
+        <v>301519.8707731212</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267288</v>
+        <v>41617.52445267259</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019536</v>
+        <v>73739.30240019559</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806966</v>
+        <v>229588.138980697</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029182</v>
+        <v>69851.97930029174</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268980.1354717456</v>
+        <v>-268980.1354717458</v>
       </c>
       <c r="C6" t="n">
-        <v>178395.7914677262</v>
+        <v>178395.7914677271</v>
       </c>
       <c r="D6" t="n">
-        <v>117220.5419805238</v>
+        <v>117220.5419805229</v>
       </c>
       <c r="E6" t="n">
-        <v>23502.50019170907</v>
+        <v>23467.76226627367</v>
       </c>
       <c r="F6" t="n">
-        <v>530987.9418162556</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162551</v>
+        <v>530953.2038908192</v>
       </c>
       <c r="H6" t="n">
-        <v>530987.9418162556</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="I6" t="n">
-        <v>530987.9418162553</v>
+        <v>530953.2038908196</v>
       </c>
       <c r="J6" t="n">
-        <v>481922.9970877105</v>
+        <v>481888.2591622747</v>
       </c>
       <c r="K6" t="n">
-        <v>489370.4173635821</v>
+        <v>489335.6794381465</v>
       </c>
       <c r="L6" t="n">
-        <v>457248.6394160597</v>
+        <v>457213.9014906238</v>
       </c>
       <c r="M6" t="n">
-        <v>398380.6480873282</v>
+        <v>398345.9101618926</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.9418162552</v>
+        <v>530953.2038908196</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.941816255</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162552</v>
+        <v>530953.2038908193</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955707</v>
+        <v>687.6696919955699</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537563</v>
+        <v>349.2299344537552</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826661</v>
+        <v>139.1997510826651</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219684</v>
+        <v>246.3952001219692</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874351</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874362</v>
+        <v>161.7043472874351</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462828</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874351</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.6379580593311</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0.4793217556697869</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988665</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681356</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>98.62049265705659</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>40.51015860120961</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1588215298002</v>
+        <v>114.3730015696175</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632377998</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713015</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.54639737910475</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>173.3684799205369</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>57.64611128795627</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365671112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471273</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.00800420229729</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>139.4614076780575</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419592</v>
+        <v>38.47015094419598</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>192.0104466411438</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>32.35174503230678</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27792,10 +27792,10 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057159</v>
+        <v>5.686931024057259</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>226.546338767746</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.1794238159621</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>364.4563821858555</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>7.562765922825804</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354051</v>
+        <v>2.764501274354048</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597843</v>
+        <v>28.3119486759784</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795347</v>
+        <v>106.5784353795345</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>234.6335900342071</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776144</v>
+        <v>351.654928977614</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526273</v>
+        <v>436.2590348526268</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904211</v>
+        <v>485.4222343904206</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361796</v>
+        <v>493.276873636179</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893214</v>
+        <v>465.7873640893209</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787058</v>
+        <v>397.5387388787053</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909012</v>
+        <v>298.5350369909009</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751428</v>
+        <v>173.6556031751426</v>
       </c>
       <c r="S5" t="n">
-        <v>62.996072789343</v>
+        <v>62.99607278934293</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848485</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2211601019483238</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.479138582782924</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.28536473371929</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721916</v>
+        <v>50.9264819072191</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>139.7461588233639</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698201</v>
+        <v>238.8484438698198</v>
       </c>
       <c r="L6" t="n">
-        <v>321.161208511705</v>
+        <v>321.1612085117046</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137586</v>
+        <v>374.7799821375855</v>
       </c>
       <c r="N6" t="n">
-        <v>384.699293072126</v>
+        <v>384.6992930721255</v>
       </c>
       <c r="O6" t="n">
-        <v>351.92469605362</v>
+        <v>351.9246960536196</v>
       </c>
       <c r="P6" t="n">
-        <v>282.450594812294</v>
+        <v>282.4505948122936</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022556</v>
+        <v>188.8107426022554</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103116</v>
+        <v>91.83634113103105</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020038</v>
+        <v>27.47435043020035</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603106</v>
+        <v>5.961966480603099</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729778</v>
+        <v>0.09731174886729767</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.24006010031988</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920767</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871063</v>
+        <v>37.29198919871059</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261562</v>
+        <v>87.67224909261552</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.0724371098915</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966486</v>
+        <v>184.3631170966484</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>194.3850573619608</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.7630151698596</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>175.2768585433955</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>149.9796324968698</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>103.838123491331</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983757</v>
+        <v>55.7576114198375</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648375</v>
+        <v>21.61086556648372</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457674</v>
+        <v>5.298438610457668</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562998</v>
+        <v>0.0676396418356299</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,13 +33506,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>28.45844197068259</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>177.8598224851392</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752106</v>
+        <v>53.5876855075208</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326339</v>
+        <v>131.5650779326334</v>
       </c>
       <c r="L5" t="n">
-        <v>200.49261988264</v>
+        <v>200.4926198826395</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631484</v>
+        <v>255.0760011631478</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395887</v>
+        <v>263.8638100395881</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676347</v>
+        <v>235.6891526676342</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234362</v>
+        <v>166.3057431234358</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645175</v>
+        <v>76.22934711645141</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669736</v>
+        <v>12.90853215669722</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954611</v>
+        <v>101.0070048954608</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318308</v>
+        <v>182.6068287318304</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155677</v>
+        <v>232.6459482155672</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887926</v>
+        <v>253.3575809887922</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091756</v>
+        <v>209.3284516091752</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>342.1261223192938</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375663</v>
+        <v>48.82896851623386</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840086</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569645</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238014</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490884</v>
+        <v>233.8951875490882</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>199.8619864574351</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617633</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963679</v>
+        <v>17.67608023963666</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>528.7520287839585</v>
+        <v>371.3409564478481</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
